--- a/data/georgia_census/qvemo-qartli/walka/age_dependency.xlsx
+++ b/data/georgia_census/qvemo-qartli/walka/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8A4B8CA-D1B6-4CE5-9D06-57A8470AB427}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2797D29-A7A8-4AD1-8853-CA5AF7EED775}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8FADDA2-D57B-406C-A746-00F1BE78228E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B8B75ED-08A4-4699-B613-DE0F1D161F11}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEAAD08-9B77-470F-829F-BACFBDA3164A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{293D7B9B-72CA-4789-9005-A038D62AAE6B}"/>
 </file>